--- a/rails_app/spec/fixtures/import_file.xlsx
+++ b/rails_app/spec/fixtures/import_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Works\jfactory\rails\spec\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Works\factory_rb\rails_app\spec\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -223,14 +223,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,15 +691,16 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -712,16 +713,16 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -744,16 +745,16 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>501</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>75.44</v>
       </c>
       <c r="G2">
@@ -770,16 +771,16 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>510</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>3796.6099999999997</v>
       </c>
       <c r="G3">
@@ -796,16 +797,16 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>511</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>1032.24</v>
       </c>
       <c r="G4">
@@ -822,16 +823,16 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>512</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>107.18</v>
       </c>
       <c r="G5">
@@ -848,16 +849,16 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>520</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>2.99</v>
       </c>
       <c r="G6">
@@ -874,16 +875,16 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>521</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>2.5299999999999998</v>
       </c>
       <c r="G7">
@@ -900,16 +901,16 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>522</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>22.54</v>
       </c>
       <c r="G8">
@@ -926,16 +927,16 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>524</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>22.31</v>
       </c>
       <c r="G9">
@@ -952,16 +953,16 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>525</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>16.329999999999998</v>
       </c>
       <c r="G10">
@@ -978,16 +979,16 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>526</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>91.31</v>
       </c>
       <c r="G11">
@@ -1007,13 +1008,13 @@
       <c r="C12" s="2">
         <v>543</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>316.70999999999998</v>
       </c>
       <c r="G12">
@@ -1030,16 +1031,16 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>544</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>54.279999999999994</v>
       </c>
       <c r="G13">
@@ -1056,16 +1057,16 @@
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>564</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>20.239999999999998</v>
       </c>
       <c r="G14">
@@ -1082,16 +1083,16 @@
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>565</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>37.03</v>
       </c>
       <c r="G15">
@@ -1108,16 +1109,16 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>586</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>39</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>4.1399999999999997</v>
       </c>
       <c r="G16">
@@ -1134,16 +1135,16 @@
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>587</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>2.3000000000000003</v>
       </c>
       <c r="G17">
@@ -1160,16 +1161,16 @@
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>614</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>14.72</v>
       </c>
       <c r="G18">
@@ -1186,16 +1187,16 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>615</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>93.84</v>
       </c>
       <c r="G19">
@@ -1212,16 +1213,16 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>628</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>0.92</v>
       </c>
       <c r="G20">
@@ -1238,16 +1239,16 @@
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>629</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>0.46</v>
       </c>
       <c r="G21">
@@ -1264,16 +1265,16 @@
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>630</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>2.0699999999999998</v>
       </c>
       <c r="G22">
@@ -1290,16 +1291,16 @@
       <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>631</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>2.3000000000000003</v>
       </c>
       <c r="G23">
@@ -1316,16 +1317,16 @@
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>632</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>14.950000000000001</v>
       </c>
       <c r="G24">
@@ -1337,6 +1338,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
